--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1293EA70-5DF7-411D-9780-CC0924D47739}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14835"/>
+    <workbookView xWindow="6630" yWindow="960" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -16,12 +22,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0">
+    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -87,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J5" authorId="0">
+    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N5" authorId="0">
+    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +137,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -203,13 +209,13 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>Davy</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -231,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -253,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="1">
+    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -275,7 +281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -302,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -310,9 +316,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>EmptyName</t>
-  </si>
-  <si>
     <t>IconID</t>
   </si>
   <si>
@@ -341,9 +344,6 @@
   </si>
   <si>
     <t>StrStruct</t>
-  </si>
-  <si>
-    <t>int64</t>
   </si>
   <si>
     <t>string</t>
@@ -442,9 +442,6 @@
   </si>
   <si>
     <t>字符串结构</t>
-  </si>
-  <si>
-    <t>黑猫警长</t>
   </si>
   <si>
     <r>
@@ -639,18 +636,48 @@
   <si>
     <t>攻击值</t>
   </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑猫警长</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑猫警长，</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ext</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextName</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,150 +704,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -831,8 +714,35 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -845,194 +755,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1055,255 +779,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1322,69 +804,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -1398,9 +842,15 @@
       <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvPr id="2" name="文本框 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1799,19 +1249,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="4" width="20.125" style="2" customWidth="1"/>
@@ -1823,172 +1273,175 @@
     <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3"/>
       <c r="K3" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>37</v>
-      </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
+      <c r="B5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="E5" s="4">
         <v>0.6</v>
@@ -1998,30 +1451,30 @@
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
@@ -2034,76 +1487,75 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E7" s="4">
         <v>0.7</v>
       </c>
       <c r="F7" s="4"/>
       <c r="J7" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="8" ht="33" spans="1:10">
+    <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="J8" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4"/>
       <c r="J9" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="3" width="11.625" customWidth="1"/>
@@ -2112,146 +1564,142 @@
     <col min="8" max="8" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
         <v>52</v>
       </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C3" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" ht="16.5" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
         <v>67</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>70</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>71</v>
       </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1293EA70-5DF7-411D-9780-CC0924D47739}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078F330-11B8-43BA-A06B-8CF7086168E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6630" yWindow="960" windowWidth="21600" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3075" yWindow="1920" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
   <si>
     <t>ID</t>
   </si>
@@ -537,9 +537,6 @@
     <t>血量:100攻击速率:1.2</t>
   </si>
   <si>
-    <t>血量: 3  额外类型:唐僧 | 血量:10  额外类型:孙悟空</t>
-  </si>
-  <si>
     <t>葫芦\n娃</t>
   </si>
   <si>
@@ -672,12 +669,77 @@
     <t>TextName</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>血量: 3  额外类型:唐僧 | 血量:10  额外类型:孙悟空</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3Test</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{3, 4, 5}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Test</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Vector</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1, 2}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +803,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -785,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,6 +878,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1270,10 +1342,11 @@
     <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
     <col min="11" max="13" width="21.875" style="2" customWidth="1"/>
     <col min="14" max="14" width="43.875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="2"/>
+    <col min="15" max="15" width="13.875" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1316,19 +1389,25 @@
       <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>14</v>
@@ -1360,8 +1439,14 @@
       <c r="N2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -1391,7 +1476,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1432,16 +1517,22 @@
       <c r="N4" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="O4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="E5" s="4">
         <v>0.6</v>
@@ -1466,15 +1557,21 @@
         <v>40</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>79</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
@@ -1487,55 +1584,55 @@
         <v>1</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4">
         <v>0.7</v>
       </c>
       <c r="F7" s="4"/>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="J8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4"/>
       <c r="J9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1566,59 +1663,59 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>52</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
@@ -1626,19 +1723,19 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
@@ -1646,13 +1743,13 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
@@ -1660,13 +1757,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
@@ -1674,13 +1771,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078F330-11B8-43BA-A06B-8CF7086168E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736EC71E-11A8-4C6F-9C3B-1F0734656E7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3075" yWindow="1920" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>ID</t>
   </si>
@@ -731,7 +731,11 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{1, 2}</t>
+    <t>ActorType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{x=1, y=2}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1329,8 +1333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1425,7 +1429,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>15</v>
@@ -1563,7 +1567,7 @@
         <v>82</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736EC71E-11A8-4C6F-9C3B-1F0734656E7B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D055F37-6E6E-43CF-AFC3-766BF6FB6400}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
-    <sheet name="@Types" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -71,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -90,50 +88,6 @@
           </rPr>
           <t xml:space="preserve">
 数字分割请不要使用逗号, 这是英文计数法分隔符, 会引起电子表格显示数据与导出不符的问题</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-在@Types Sheet中的ActorType定义中, 可以使用Alias进行别名标注. 推荐使用中文方法标记枚举</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-结构体字段依然支持Alias别名功能, 在@Types Sheet中定义</t>
         </r>
       </text>
     </comment>
@@ -208,107 +162,8 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Administrator</author>
-    <author>Davy</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-普通数据导出表的名称, 不会被用于任何数据输出名命名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-列可以自由调整位置</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Davy:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-别名,字段在使用时, 可直接使用别名</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-结构体没有枚举值, 必须留空</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -328,24 +183,12 @@
     <t>BuffID</t>
   </si>
   <si>
-    <t>Pos</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>SkillID</t>
   </si>
   <si>
     <t>AttackParam</t>
   </si>
   <si>
-    <t>SingleStruct</t>
-  </si>
-  <si>
-    <t>StrStruct</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -358,44 +201,6 @@
     <t>[]int32</t>
   </si>
   <si>
-    <t>Vec2</t>
-  </si>
-  <si>
-    <t>ActorType</t>
-  </si>
-  <si>
-    <t>Prop</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Prop</t>
-    </r>
-  </si>
-  <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
   <si>
@@ -426,45 +231,10 @@
     <t>物品id</t>
   </si>
   <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
     <t>技能ID列表</t>
   </si>
   <si>
     <t>攻击参数</t>
-  </si>
-  <si>
-    <t>单结构解析</t>
-  </si>
-  <si>
-    <t>字符串结构</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>: 100 Y:89</t>
-    </r>
-  </si>
-  <si>
-    <t>唐僧</t>
   </si>
   <si>
     <r>
@@ -514,124 +284,17 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>攻击值:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-  </si>
-  <si>
-    <t>血量:100攻击速率:1.2</t>
-  </si>
-  <si>
     <t>葫芦\n娃</t>
   </si>
   <si>
-    <t>猪八戒</t>
-  </si>
-  <si>
     <t>舒"克"</t>
-  </si>
-  <si>
-    <t>沙僧</t>
   </si>
   <si>
     <t>贝
 塔</t>
   </si>
   <si>
-    <t>孙悟空</t>
-  </si>
-  <si>
     <t>邋遢大王</t>
-  </si>
-  <si>
-    <t>TableName: "Sample" Package: "table" CSClassHeader: "[System.Serializable]"</t>
-  </si>
-  <si>
-    <t>ObjectType</t>
-  </si>
-  <si>
-    <t>FieldName</t>
-  </si>
-  <si>
-    <t>FieldType</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Alias</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Meta</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>对象类型</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>枚举值</t>
-  </si>
-  <si>
-    <t>别名</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>特性</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>血量</t>
-  </si>
-  <si>
-    <t>lua导出模式</t>
-  </si>
-  <si>
-    <t>AttackRate</t>
-  </si>
-  <si>
-    <t>攻击速率</t>
-  </si>
-  <si>
-    <t>ExType</t>
-  </si>
-  <si>
-    <t>额外类型</t>
-  </si>
-  <si>
-    <t>攻击值</t>
   </si>
   <si>
     <t>int32</t>
@@ -667,10 +330,6 @@
   </si>
   <si>
     <t>TextName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量: 3  额外类型:唐僧 | 血量:10  额外类型:孙悟空</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -731,10 +390,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>ActorType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>{x=1, y=2}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -743,7 +398,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,13 +447,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -880,10 +528,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1331,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1342,15 +990,13 @@
     <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
     <col min="2" max="4" width="20.125" style="2" customWidth="1"/>
     <col min="5" max="6" width="19.5" style="2" customWidth="1"/>
-    <col min="7" max="9" width="15.75" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
-    <col min="11" max="13" width="21.875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="43.875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13.875" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="7" max="8" width="15.75" style="2" customWidth="1"/>
+    <col min="9" max="10" width="21.875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13.875" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1381,121 +1027,91 @@
       <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>83</v>
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3"/>
-      <c r="K3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="2" t="s">
-        <v>23</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
@@ -1504,39 +1120,27 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>85</v>
+      <c r="L4" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
         <v>0.6</v>
@@ -1546,36 +1150,24 @@
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>87</v>
+      <c r="L5" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
@@ -1587,57 +1179,45 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="2">
+      <c r="I6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4">
         <v>0.7</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="J7" s="2" t="s">
-        <v>44</v>
-      </c>
     </row>
-    <row r="8" spans="1:16" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="J9" s="2" t="s">
-        <v>42</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1646,161 +1226,4 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="29.125" customWidth="1"/>
-    <col min="8" max="8" width="28.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D055F37-6E6E-43CF-AFC3-766BF6FB6400}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A58D1-1B12-4411-B810-CD1667604E7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,7 +982,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519A58D1-1B12-4411-B810-CD1667604E7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA9F0A-824F-4C50-BEFC-B50C851AFA5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>ID</t>
   </si>
@@ -391,6 +391,14 @@
   </si>
   <si>
     <t>{x=1, y=2}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key值</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -979,15 +987,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="35.25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="20.125" style="2" customWidth="1"/>
     <col min="5" max="6" width="19.5" style="2" customWidth="1"/>
     <col min="7" max="8" width="15.75" style="2" customWidth="1"/>
@@ -996,7 +1004,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1033,8 +1041,11 @@
       <c r="L1" s="7" t="s">
         <v>38</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1071,8 +1082,11 @@
       <c r="L2" s="7" t="s">
         <v>39</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1110,7 @@
       </c>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1131,8 +1145,11 @@
       <c r="L4" s="8" t="s">
         <v>40</v>
       </c>
+      <c r="M4" s="8" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1161,8 +1178,11 @@
       <c r="L5" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -1182,8 +1202,11 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
+      <c r="M6" s="2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -1194,8 +1217,11 @@
         <v>0.7</v>
       </c>
       <c r="F7" s="4"/>
+      <c r="M7" s="2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1206,8 +1232,11 @@
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
+      <c r="M8" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
@@ -1218,6 +1247,9 @@
         <v>1</v>
       </c>
       <c r="F9" s="4"/>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DABA9F0A-824F-4C50-BEFC-B50C851AFA5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13881883-ACC5-47FE-8130-9148A3A92CA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>[]int32</t>
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
@@ -399,6 +396,38 @@
   </si>
   <si>
     <t>Key值</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>one</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]int32</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: "|"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32[]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>int32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[]</t>
+    </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -990,7 +1019,7 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1012,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1036,27 +1065,27 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1065,67 +1094,67 @@
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
@@ -1134,19 +1163,19 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K4" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
@@ -1154,10 +1183,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E5" s="4">
         <v>0.6</v>
@@ -1167,16 +1196,16 @@
         <v>10</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
@@ -1187,7 +1216,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
@@ -1211,7 +1240,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4">
         <v>0.7</v>
@@ -1226,14 +1255,14 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="M8" s="2">
-        <v>4</v>
+      <c r="M8" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -1241,7 +1270,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13881883-ACC5-47FE-8130-9148A3A92CA6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13579951-DBDB-44F6-91ED-75C31C3F815D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2415" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -232,53 +232,6 @@
   </si>
   <si>
     <t>攻击参数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>7</t>
-    </r>
   </si>
   <si>
     <t>葫芦\n娃</t>
@@ -427,6 +380,62 @@
         <charset val="134"/>
       </rPr>
       <t>[]</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{4;6;7}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wardList</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>wardList</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10,3,4}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,3,5</t>
     </r>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1016,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1033,7 +1042,7 @@
     <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1065,27 +1074,30 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1094,28 +1106,31 @@
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>47</v>
-      </c>
       <c r="J2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1129,7 +1144,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>14</v>
@@ -1138,8 +1153,9 @@
         <v>15</v>
       </c>
       <c r="J3" s="3"/>
+      <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1169,24 +1185,27 @@
         <v>22</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="E5" s="4">
         <v>0.6</v>
@@ -1195,28 +1214,31 @@
       <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>23</v>
+      <c r="I5" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
       </c>
+      <c r="N5" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
@@ -1234,13 +1256,16 @@
       <c r="M6" s="2">
         <v>2</v>
       </c>
+      <c r="N6" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4">
         <v>0.7</v>
@@ -1250,27 +1275,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="M8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13579951-DBDB-44F6-91ED-75C31C3F815D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9740E-1D23-4B3C-9894-5AFEDB296BA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2415" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>ListSpliter: "|"</t>
-  </si>
-  <si>
-    <t>ListSpliter: ";"</t>
   </si>
   <si>
     <t>唯一ID</t>
@@ -369,26 +366,6 @@
   </si>
   <si>
     <r>
-      <t>int32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>[]</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{4;6;7}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>A</t>
     </r>
     <r>
@@ -437,6 +414,14 @@
       </rPr>
       <t>,3,5</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector2[]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{4,6},{8,9}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1028,7 +1013,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1039,7 +1024,8 @@
     <col min="7" max="8" width="15.75" style="2" customWidth="1"/>
     <col min="9" max="10" width="21.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.875" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="12" max="12" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
@@ -1050,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -1074,30 +1060,30 @@
         <v>7</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -1106,28 +1092,28 @@
         <v>9</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
@@ -1144,33 +1130,31 @@
         <v>13</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>5</v>
@@ -1179,22 +1163,22 @@
         <v>5</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -1202,10 +1186,10 @@
         <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="E5" s="4">
         <v>0.6</v>
@@ -1215,22 +1199,22 @@
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -1238,7 +1222,7 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4">
         <v>0.8</v>
@@ -1250,14 +1234,11 @@
       <c r="H6" s="2">
         <v>1</v>
       </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
       <c r="M6" s="2">
         <v>2</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -1265,7 +1246,7 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4">
         <v>0.7</v>
@@ -1280,14 +1261,14 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="M8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -1295,7 +1276,7 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4">
         <v>1</v>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F9740E-1D23-4B3C-9894-5AFEDB296BA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B0F7D1-F170-4659-BB31-F35577749544}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2415" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -422,6 +422,10 @@
   </si>
   <si>
     <t>{4,6},{8,9}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]Vector3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1013,7 +1017,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1104,7 +1108,7 @@
         <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>36</v>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B0F7D1-F170-4659-BB31-F35577749544}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F04190B-68FA-42F5-AFCC-B1BD17321801}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -427,6 +427,13 @@
   <si>
     <t>[]Vector3</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorType</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1032,7 +1039,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1075,8 +1082,11 @@
       <c r="N1" s="6" t="s">
         <v>45</v>
       </c>
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1119,8 +1129,11 @@
       <c r="N2" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="O2" s="2" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1143,7 +1156,7 @@
       <c r="J3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1185,7 +1198,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1221,7 +1234,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -1245,7 +1258,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -1260,7 +1273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1275,7 +1288,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F04190B-68FA-42F5-AFCC-B1BD17321801}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D650A0D-FE1D-4EBE-9C43-B096BEACEBCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -434,6 +434,30 @@
   </si>
   <si>
     <t>ActorType</t>
+  </si>
+  <si>
+    <t>唐僧</t>
+  </si>
+  <si>
+    <t>猪八戒</t>
+  </si>
+  <si>
+    <t>沙僧</t>
+  </si>
+  <si>
+    <t>孙悟空</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>Vec2</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>X: 100 Y:89</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1039,7 +1063,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1085,8 +1109,11 @@
       <c r="O1" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="P1" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1132,8 +1159,11 @@
       <c r="O2" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1156,7 +1186,7 @@
       <c r="J3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1197,8 +1227,11 @@
       <c r="N4" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="P4" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1233,8 +1266,14 @@
       <c r="N5" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="O5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -1257,8 +1296,11 @@
       <c r="N6" s="7" t="s">
         <v>48</v>
       </c>
+      <c r="O6" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -1272,8 +1314,11 @@
       <c r="M7" s="2">
         <v>3</v>
       </c>
+      <c r="O7" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1287,8 +1332,11 @@
       <c r="M8" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="O8" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
@@ -1301,6 +1349,9 @@
       <c r="F9" s="4"/>
       <c r="M9" s="2">
         <v>5</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D650A0D-FE1D-4EBE-9C43-B096BEACEBCD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F06A8A-C4A7-4E5C-84C2-99A1C5CBF729}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,6 +32,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -40,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -54,6 +56,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -62,6 +65,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -76,6 +80,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -84,6 +89,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -98,6 +104,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -106,6 +113,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -121,6 +129,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -129,6 +138,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -143,6 +153,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -151,6 +162,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -163,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +322,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Test</t>
@@ -454,10 +467,16 @@
     <t>Vec2</t>
   </si>
   <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>X: 100 Y:89</t>
+    <t>枚举类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构体类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{X=100 , Y=89}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -476,34 +495,40 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1048,7 +1073,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1060,7 +1085,9 @@
     <col min="9" max="10" width="21.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="13" max="15" width="9" style="2"/>
+    <col min="16" max="16" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.15">
@@ -1227,8 +1254,11 @@
       <c r="N4" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="O4" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="P4" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -1270,7 +1300,7 @@
         <v>54</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F06A8A-C4A7-4E5C-84C2-99A1C5CBF729}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74357BD2-53C0-4958-834D-9EE06889349A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,36 +446,38 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>唐僧</t>
+  </si>
+  <si>
+    <t>猪八戒</t>
+  </si>
+  <si>
+    <t>沙僧</t>
+  </si>
+  <si>
+    <t>孙悟空</t>
+  </si>
+  <si>
+    <t>Pos</t>
+  </si>
+  <si>
+    <t>枚举类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构体类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]Vec2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>ActorType</t>
-  </si>
-  <si>
-    <t>唐僧</t>
-  </si>
-  <si>
-    <t>猪八戒</t>
-  </si>
-  <si>
-    <t>沙僧</t>
-  </si>
-  <si>
-    <t>孙悟空</t>
-  </si>
-  <si>
-    <t>Pos</t>
-  </si>
-  <si>
-    <t>Vec2</t>
-  </si>
-  <si>
-    <t>枚举类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构体类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{X=100 , Y=89}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{X=100 , Y=89} , {X=20, Y=30}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1073,7 +1075,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1085,8 +1087,9 @@
     <col min="9" max="10" width="21.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="13.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="32.375" style="2" customWidth="1"/>
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1137,7 +1140,7 @@
         <v>52</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -1184,10 +1187,10 @@
         <v>42</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -1255,10 +1258,10 @@
         <v>46</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -1297,7 +1300,7 @@
         <v>47</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>62</v>
@@ -1327,7 +1330,7 @@
         <v>48</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
@@ -1345,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="33" x14ac:dyDescent="0.15">
@@ -1363,7 +1366,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -1381,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74357BD2-53C0-4958-834D-9EE06889349A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE89C0C-4FF7-4E40-9290-6A8EBC234995}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="675" yWindow="2130" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -478,6 +478,10 @@
   </si>
   <si>
     <t>{X=100 , Y=89} , {X=20, Y=30}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{100,89},{20, 39}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1075,7 +1079,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1332,6 +1336,9 @@
       <c r="O6" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="P6" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="2">

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE89C0C-4FF7-4E40-9290-6A8EBC234995}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA72724F-3B38-46BF-A27E-7D579BB1B8F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="2130" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -458,30 +458,51 @@
     <t>孙悟空</t>
   </si>
   <si>
+    <t>枚举类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]Vec2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActorType</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{X=100 , Y=89} , {X=20, Y=30}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{100,89},{20, 39}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>Pos</t>
-  </si>
-  <si>
-    <t>枚举类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构体类型</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]Vec2</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ActorType</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{X=100 , Y=89} , {X=20, Y=30}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>{100,89},{20, 39}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vec2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构体数组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构体</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{X=100 , Y=89}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>PosSingle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, 20</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1076,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1097,7 +1118,7 @@
     <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1144,10 +1165,13 @@
         <v>52</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1191,13 +1215,16 @@
         <v>42</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1220,7 +1247,7 @@
       <c r="J3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1262,13 +1289,16 @@
         <v>46</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1307,10 +1337,13 @@
         <v>53</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -1337,10 +1370,13 @@
         <v>54</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -1358,7 +1394,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1376,7 +1412,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA72724F-3B38-46BF-A27E-7D579BB1B8F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85675C63-7EFB-4DBA-AE02-3F9444EE5FDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="675" yWindow="2130" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -470,10 +470,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>{X=100 , Y=89} , {X=20, Y=30}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>{100,89},{20, 39}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -503,6 +499,14 @@
   </si>
   <si>
     <t>100, 20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 , Y=89</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{X=100 , Y=89} ,   {X=20, Y=30}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1100,7 +1104,7 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1165,10 +1169,10 @@
         <v>52</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -1221,7 +1225,7 @@
         <v>58</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -1292,10 +1296,10 @@
         <v>57</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -1337,10 +1341,10 @@
         <v>53</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -1370,10 +1374,10 @@
         <v>54</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -1392,6 +1396,9 @@
       </c>
       <c r="O7" s="2" t="s">
         <v>55</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.15">

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85675C63-7EFB-4DBA-AE02-3F9444EE5FDB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17906B3C-029D-4D22-9889-12EF0C919ECF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="675" yWindow="2130" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1260" yWindow="1845" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -507,6 +507,26 @@
   </si>
   <si>
     <t>{X=100 , Y=89} ,   {X=20, Y=30}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillCache</t>
+  </si>
+  <si>
+    <t>{0,0.333}</t>
+  </si>
+  <si>
+    <t>{0,0.467}</t>
+  </si>
+  <si>
+    <t>{0,0.533}</t>
+  </si>
+  <si>
+    <t>float[]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮点数类型</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1101,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1119,10 +1139,11 @@
     <col min="13" max="14" width="9" style="2"/>
     <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32.375" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="17" max="17" width="15.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1174,8 +1195,11 @@
       <c r="Q1" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="R1" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -1227,8 +1251,11 @@
       <c r="Q2" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="R2" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1278,7 @@
       <c r="J3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1301,8 +1328,11 @@
       <c r="Q4" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="R4" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1346,8 +1376,11 @@
       <c r="Q5" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="R5" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -1379,8 +1412,11 @@
       <c r="Q6" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="R6" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -1400,8 +1436,11 @@
       <c r="Q7" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="R7" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1410,7 +1449,9 @@
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="M8" s="2" t="s">
         <v>41</v>
@@ -1418,8 +1459,11 @@
       <c r="O8" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="R8" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17906B3C-029D-4D22-9889-12EF0C919ECF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A153D1-B095-4045-977E-9D15519E644F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1260" yWindow="1845" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="2985" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1140,7 +1140,8 @@
     <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="32.375" style="2" customWidth="1"/>
     <col min="17" max="17" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="2"/>
+    <col min="18" max="18" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.15">

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A153D1-B095-4045-977E-9D15519E644F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D74E3C-3414-4EA4-AAA0-9C133AFE94CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2985" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1485" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -122,30 +122,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-浮点数的百分比显示时, 导出的依然是浮点数</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
@@ -186,9 +162,6 @@
     <t>IconID</t>
   </si>
   <si>
-    <t>NumericalRate</t>
-  </si>
-  <si>
     <t>ItemID</t>
   </si>
   <si>
@@ -207,9 +180,6 @@
     <t>int32</t>
   </si>
   <si>
-    <t>float</t>
-  </si>
-  <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
   <si>
@@ -229,9 +199,6 @@
   </si>
   <si>
     <t>图标ID</t>
-  </si>
-  <si>
-    <t>攻击率</t>
   </si>
   <si>
     <t>物品id</t>
@@ -527,6 +494,18 @@
   </si>
   <si>
     <t>浮点数类型</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能比率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rate</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1123,15 +1102,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="20.125" style="2" customWidth="1"/>
-    <col min="5" max="6" width="19.5" style="2" customWidth="1"/>
+    <col min="2" max="5" width="20.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.5" style="2" customWidth="1"/>
     <col min="7" max="8" width="15.75" style="2" customWidth="1"/>
     <col min="9" max="10" width="21.875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13.875" style="2" customWidth="1"/>
@@ -1152,128 +1131,128 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="O2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="R2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -1281,56 +1260,56 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K4" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="L4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="8" t="s">
-        <v>40</v>
-      </c>
       <c r="N4" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
@@ -1338,47 +1317,47 @@
         <v>100</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.6</v>
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.1</v>
       </c>
       <c r="F5" s="4"/>
       <c r="H5" s="2">
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J5" s="2">
         <v>1</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
@@ -1386,10 +1365,10 @@
         <v>101</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.8</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="2">
@@ -1402,19 +1381,19 @@
         <v>2</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
@@ -1422,23 +1401,23 @@
         <v>102</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.7</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.3</v>
       </c>
       <c r="F7" s="4"/>
       <c r="M7" s="2">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.15">
@@ -1446,22 +1425,22 @@
         <v>103</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
-      <c r="E8" s="4">
-        <v>0</v>
+      <c r="E8" s="5">
+        <v>0.6</v>
       </c>
       <c r="F8" s="4"/>
       <c r="M8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
@@ -1469,17 +1448,17 @@
         <v>104</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.7</v>
       </c>
       <c r="F9" s="4"/>
       <c r="M9" s="2">
         <v>5</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D74E3C-3414-4EA4-AAA0-9C133AFE94CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C3D3F-FE95-4FE6-B058-2162D525C6B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1485" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -506,6 +506,22 @@
   </si>
   <si>
     <t>Rate</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayEx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[][]</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维整型数组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{0,1},{2,3}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1100,10 +1116,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1123,7 +1139,7 @@
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1178,8 +1194,11 @@
       <c r="R1" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
@@ -1234,8 +1253,11 @@
       <c r="R2" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="S2" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1258,7 +1280,7 @@
       <c r="J3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1311,8 +1333,11 @@
       <c r="R4" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="S4" s="2" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1359,8 +1384,11 @@
       <c r="R5" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="S5" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -1396,7 +1424,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -1420,7 +1448,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1443,7 +1471,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8C3D3F-FE95-4FE6-B058-2162D525C6B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5964CC02-8C1D-4728-8024-0005F1CAC8B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -151,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -522,6 +522,22 @@
   </si>
   <si>
     <t>{0,1},{2,3}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>[][]float</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>二维浮点数组</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{0.1,0.2,0.3}, {0.4,0.5,0.6}}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArrayExFloat</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1116,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1136,10 +1152,12 @@
     <col min="16" max="16" width="32.375" style="2" customWidth="1"/>
     <col min="17" max="17" width="15.75" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="2"/>
+    <col min="19" max="19" width="9" style="2"/>
+    <col min="20" max="20" width="16.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1197,15 +1215,18 @@
       <c r="S1" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -1232,7 +1253,7 @@
       <c r="K2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="M2" s="2" t="s">
@@ -1256,8 +1277,11 @@
       <c r="S2" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="T2" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1280,7 +1304,7 @@
       <c r="J3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1336,8 +1360,11 @@
       <c r="S4" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="T4" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
@@ -1387,8 +1414,11 @@
       <c r="S5" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="T5" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -1424,7 +1454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -1448,7 +1478,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -1471,7 +1501,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>

--- a/Sample.xlsx
+++ b/Sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tabtoy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5964CC02-8C1D-4728-8024-0005F1CAC8B6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B475C97-41BB-4FF7-9FC7-7F3FA2515FF4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="27795" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1132,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1158,65 +1158,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>42</v>
+      <c r="I1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -1305,63 +1303,65 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>43</v>
+      <c r="I4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
@@ -1518,6 +1518,20 @@
       <c r="O9" s="2" t="s">
         <v>51</v>
       </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="7"/>
+      <c r="N15" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
